--- a/Test Results.xlsx
+++ b/Test Results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
   <si>
     <t>Updates/Agents</t>
   </si>
@@ -30,39 +30,50 @@
     <t>Min</t>
   </si>
   <si>
-    <t>CPU</t>
-  </si>
-  <si>
     <t>Basic GPU</t>
   </si>
   <si>
-    <t>Less Copy</t>
+    <t>% compared to cpu</t>
   </si>
   <si>
-    <t>GPU old broad</t>
+    <t>Basic CPU</t>
   </si>
   <si>
-    <t>GPU New broad</t>
+    <t>Copying Less Data</t>
   </si>
   <si>
-    <t>GPU agent Broad</t>
+    <t>GPU Player BP</t>
   </si>
   <si>
-    <t>Split GPU</t>
+    <t>GPU Original BP</t>
   </si>
   <si>
-    <t>Split gpu and broad</t>
+    <t>GPU Player &amp; Agent BP</t>
   </si>
   <si>
-    <t>Sort and Split</t>
+    <t>Split Functions (CPU BP)</t>
+  </si>
+  <si>
+    <t>Split functions (GPU BP)</t>
+  </si>
+  <si>
+    <t>Sorted Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,11 +112,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -117,9 +141,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,7 +177,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -164,7 +193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CPU</c:v>
+                  <c:v>Basic CPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -204,7 +233,7 @@
                   <c:v>59.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6</c:v>
@@ -259,7 +288,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Less Copy</c:v>
+                  <c:v>Copying Less Data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -288,15 +317,15 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="6"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$21</c:f>
+              <c:f>Sheet1!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU old broad</c:v>
+                  <c:v>Split Functions (CPU BP)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -304,36 +333,36 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$23:$I$23</c:f>
+              <c:f>Sheet1!$L$5:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>114.9</c:v>
+                  <c:v>121.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.3</c:v>
+                  <c:v>66.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.400000000000006</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="8"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$27</c:f>
+              <c:f>Sheet1!$K$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU New broad</c:v>
+                  <c:v>Sorted Data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -341,21 +370,21 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$29:$I$29</c:f>
+              <c:f>Sheet1!$L$17:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>292.5</c:v>
+                  <c:v>275.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>159.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.2</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,7 +399,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU agent Broad</c:v>
+                  <c:v>GPU Player &amp; Agent BP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -399,15 +428,15 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="4"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$3</c:f>
+              <c:f>Sheet1!$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Split GPU</c:v>
+                  <c:v>GPU Player BP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -415,21 +444,58 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$5:$O$5</c:f>
+              <c:f>Sheet1!$F$29:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>121.2</c:v>
+                  <c:v>292.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.3</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.6</c:v>
+                  <c:v>62.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU Original BP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>114.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -437,14 +503,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Split gpu and broad</c:v>
+                  <c:v>Split functions (GPU BP)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -467,43 +533,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.8000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sort and Split</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$17:$O$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>275.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>159.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,21 +547,40 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41828736"/>
-        <c:axId val="41830272"/>
+        <c:axId val="92085248"/>
+        <c:axId val="92099712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41828736"/>
+        <c:axId val="92085248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Agents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41830272"/>
+        <c:crossAx val="92099712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -540,18 +588,487 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41830272"/>
+        <c:axId val="92099712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Update</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>s per second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41828736"/>
+        <c:crossAx val="92085248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Basic GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>68.125701459034801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.38023450586263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.86206896551724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>183.33333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copying Less Data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70.707070707070713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.73534338358459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.48275862068965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Split Functions (CPU BP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>68.013468013468014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.05527638190952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182.75862068965517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sorted Data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$20:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>154.76992143658811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>518.9655172413793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>566.66666666666674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU Player &amp; Agent BP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>186.86868686868686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>366.33165829145725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>953.44827586206884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU Player BP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$32:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>164.14141414141415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>418.76046901172526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1072.4137931034484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1333.3333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU Original BP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$26:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64.478114478114492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.4321608040201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1127.5862068965519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400.0000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Split functions (GPU BP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$14:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>201.34680134680139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>371.35678391959794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1201.7241379310344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1466.6666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="92478464"/>
+        <c:axId val="92488832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="92478464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of agents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92488832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92488832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> increase over CPU Implementation</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92478464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -578,15 +1095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -600,6 +1117,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>145994</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -895,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:O37"/>
+  <dimension ref="E3:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,11 +1455,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="5:15" x14ac:dyDescent="0.25">
@@ -958,7 +1505,7 @@
         <v>59.7</v>
       </c>
       <c r="H5" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="I5" s="2">
         <v>0.6</v>
@@ -1022,7 +1569,7 @@
         <v>50.3</v>
       </c>
       <c r="H7" s="2">
-        <v>5.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I7" s="2">
         <v>0.3</v>
@@ -1043,12 +1590,38 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <f>SUM((L5/F5)*100)</f>
+        <v>68.013468013468014</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" ref="M8:O8" si="0">SUM((M5/G5)*100)</f>
+        <v>111.05527638190952</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>182.75862068965517</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>11</v>
+      <c r="E9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="5:15" x14ac:dyDescent="0.25">
@@ -1179,12 +1752,52 @@
         <v>2.6</v>
       </c>
     </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <f>SUM((F11/F5)*100)</f>
+        <v>68.125701459034801</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14:I14" si="1">SUM((G11/G5)*100)</f>
+        <v>109.38023450586263</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>175.86206896551724</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>183.33333333333334</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1">
+        <f>SUM((L11/F5)*100)</f>
+        <v>201.34680134680139</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" ref="M14:O14" si="2">SUM((M11/G5)*100)</f>
+        <v>371.35678391959794</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>1201.7241379310344</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="2"/>
+        <v>1466.6666666666667</v>
+      </c>
+    </row>
     <row r="15" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>12</v>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.25">
@@ -1315,9 +1928,49 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <f>SUM((F17/F5)*100)</f>
+        <v>70.707070707070713</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:I20" si="3">SUM((G17/G5)*100)</f>
+        <v>113.73534338358459</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>184.48275862068965</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1">
+        <f>SUM((L17/F5)*100)</f>
+        <v>154.76992143658811</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" ref="M20:O20" si="4">SUM((M17/G5)*100)</f>
+        <v>266.66666666666663</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="4"/>
+        <v>518.9655172413793</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="4"/>
+        <v>566.66666666666674</v>
+      </c>
+    </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
-        <v>7</v>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -1425,6 +2078,27 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <f>SUM((F23/F5)*100)</f>
+        <v>64.478114478114492</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ref="G26:I26" si="5">SUM((G23/G5)*100)</f>
+        <v>186.4321608040201</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="5"/>
+        <v>1127.5862068965519</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="5"/>
+        <v>1400.0000000000002</v>
+      </c>
+    </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E27" s="5" t="s">
         <v>8</v>
@@ -1535,9 +2209,30 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1">
+        <f>SUM((F29/F5)*100)</f>
+        <v>164.14141414141415</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ref="G32:I32" si="6">SUM((G29/G5)*100)</f>
+        <v>418.76046901172526</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="6"/>
+        <v>1072.4137931034484</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="6"/>
+        <v>1333.3333333333335</v>
+      </c>
+    </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="1" t="s">
-        <v>9</v>
+      <c r="E33" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="K33" s="1"/>
     </row>
@@ -1645,9 +2340,31 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1">
+        <f>SUM((F35/F5)*100)</f>
+        <v>186.86868686868686</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ref="G38:I38" si="7">SUM((G35/G5)*100)</f>
+        <v>366.33165829145725</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="7"/>
+        <v>953.44827586206884</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Test Results.xlsx
+++ b/Test Results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -547,11 +547,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92085248"/>
-        <c:axId val="92099712"/>
+        <c:axId val="110029056"/>
+        <c:axId val="110104960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92085248"/>
+        <c:axId val="110029056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,7 +580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92099712"/>
+        <c:crossAx val="110104960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -588,7 +588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92099712"/>
+        <c:axId val="110104960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,7 +623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92085248"/>
+        <c:crossAx val="110029056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -992,11 +992,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92478464"/>
-        <c:axId val="92488832"/>
+        <c:axId val="110143360"/>
+        <c:axId val="110145536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92478464"/>
+        <c:axId val="110143360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92488832"/>
+        <c:crossAx val="110145536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1033,7 +1033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92488832"/>
+        <c:axId val="110145536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92478464"/>
+        <c:crossAx val="110143360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
